--- a/DATA_RESPUESTA/Gobierno y Turista.xlsx
+++ b/DATA_RESPUESTA/Gobierno y Turista.xlsx
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3">
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="J2" sqref="J2"/>
@@ -4845,6 +4845,2190 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>SV-PW9858</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>00108338-6</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>0617-210164-002-0</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>WALTER MAURICIO, PALACIOS COLOCHO</t>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F86" s="0" t="inlineStr">
+        <is>
+          <t>6227-2957</t>
+        </is>
+      </c>
+      <c r="G86" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H86" s="0" t="inlineStr">
+        <is>
+          <t>164.60</t>
+        </is>
+      </c>
+      <c r="I86" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J86" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>SV-NS47705</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>00115399-5</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>0604-090668-101-7</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>SIMEON, NAVARRETE LEONOR</t>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F87" s="0" t="inlineStr">
+        <is>
+          <t>6124-2645</t>
+        </is>
+      </c>
+      <c r="G87" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H87" s="0" t="inlineStr">
+        <is>
+          <t>199.00</t>
+        </is>
+      </c>
+      <c r="I87" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J87" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>SV-BA47686</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>00119483-2</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>0614-251259-006-0</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>ANA IRMA, BENITEZ ARGUETA</t>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F88" s="0" t="inlineStr">
+        <is>
+          <t>6270-5458</t>
+        </is>
+      </c>
+      <c r="G88" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H88" s="0" t="inlineStr">
+        <is>
+          <t>390.80</t>
+        </is>
+      </c>
+      <c r="I88" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J88" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>SV-VS5897</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>00141561-4</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>0610-091159-101-0</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>SALVADOR, VASQUEZ MELARA</t>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F89" s="0" t="inlineStr">
+        <is>
+          <t>6333-5201</t>
+        </is>
+      </c>
+      <c r="G89" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>334.40</t>
+        </is>
+      </c>
+      <c r="I89" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J89" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>SV-RA2158</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>00287394-6</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>0210-250167-105-8</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>ANA LIZ, RODRIGUEZ DE TOVAR</t>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>6440-5701</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>270.20</t>
+        </is>
+      </c>
+      <c r="I90" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J90" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>SV-EM47658</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>00374984-9</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>0619-030179-101-7</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>MARVIN VITELIO, ERAZO VASQUEZ</t>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F91" s="0" t="inlineStr">
+        <is>
+          <t>7786-5956</t>
+        </is>
+      </c>
+      <c r="G91" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H91" s="0" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="I91" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J91" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>SV-ME47714</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>00449568-9</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>1009-100279-101-7</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>ERIC ALEXANDER, MEJIA MOLINA</t>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F92" s="0" t="inlineStr">
+        <is>
+          <t>7083-1594</t>
+        </is>
+      </c>
+      <c r="G92" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="I92" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J92" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>SV-AE47669</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>00453608-7</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>0811-301161-101-8</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>ESTANISLAO, ALVARADO ALVAREZ</t>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F93" s="0" t="inlineStr">
+        <is>
+          <t>7993-9305</t>
+        </is>
+      </c>
+      <c r="G93" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H93" s="0" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="I93" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J93" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>SV-NJ26082</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>00481311-2</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>0703-250365-101-1</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>JOSE ANTONIO, NOLASCO LOPEZ</t>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F94" s="0" t="inlineStr">
+        <is>
+          <t>7710-9443</t>
+        </is>
+      </c>
+      <c r="G94" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H94" s="0" t="inlineStr">
+        <is>
+          <t>219.80</t>
+        </is>
+      </c>
+      <c r="I94" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J94" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>SV-AL47672</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>00492838-9</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>0210-020382-105-2</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>LUIS ALONSO, ALVAREZ HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F95" s="0" t="inlineStr">
+        <is>
+          <t>7663-1438</t>
+        </is>
+      </c>
+      <c r="G95" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H95" s="0" t="inlineStr">
+        <is>
+          <t>301.80</t>
+        </is>
+      </c>
+      <c r="I95" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J95" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>SV-SR47678</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>00542374-0</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>0210-150150-002-2</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>RICARDO ANTONIO, SILIEZAR SALINAS</t>
+        </is>
+      </c>
+      <c r="E96" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F96" s="0" t="inlineStr">
+        <is>
+          <t>6293-0678</t>
+        </is>
+      </c>
+      <c r="G96" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H96" s="0" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="I96" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J96" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>SV-JJ47659</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>00557486-8</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>0203-230383-101-7</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>JOSE RODOLFO, JIMENEZ PINTIN</t>
+        </is>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F97" s="0" t="inlineStr">
+        <is>
+          <t>6263-4944</t>
+        </is>
+      </c>
+      <c r="G97" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H97" s="0" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="I97" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J97" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>SV-RC47664</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>00569371-9</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>0614-020383-132-1</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS RODOLFO, ROSALES MACHADO</t>
+        </is>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F98" s="0" t="inlineStr">
+        <is>
+          <t>6566-6345</t>
+        </is>
+      </c>
+      <c r="G98" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H98" s="0" t="inlineStr">
+        <is>
+          <t>367.60</t>
+        </is>
+      </c>
+      <c r="I98" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J98" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>SV-DM47697</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>00729179-1</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>0609-150457-001-8</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL HERIBERTO, DURAN RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="E99" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F99" s="0" t="inlineStr">
+        <is>
+          <t>7880-4336</t>
+        </is>
+      </c>
+      <c r="G99" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H99" s="0" t="inlineStr">
+        <is>
+          <t>352.40</t>
+        </is>
+      </c>
+      <c r="I99" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J99" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>SV-RM47671</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>00738151-2</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>0614-310570-114-1</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL ALFREDO, RIVERA MEDRANO</t>
+        </is>
+      </c>
+      <c r="E100" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F100" s="0" t="inlineStr">
+        <is>
+          <t>7189-5007</t>
+        </is>
+      </c>
+      <c r="G100" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H100" s="0" t="inlineStr">
+        <is>
+          <t>302.80</t>
+        </is>
+      </c>
+      <c r="I100" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J100" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>SV-DR47657</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>00864458-1</t>
+        </is>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>0312-050365-001-4</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>ROSSANA ELISABETH, DIAZ DE CORVERA</t>
+        </is>
+      </c>
+      <c r="E101" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F101" s="0" t="inlineStr">
+        <is>
+          <t>7457-5307</t>
+        </is>
+      </c>
+      <c r="G101" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H101" s="0" t="inlineStr">
+        <is>
+          <t>283.80</t>
+        </is>
+      </c>
+      <c r="I101" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J101" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>SV-MF47700</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>00889131-6</t>
+        </is>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>0614-091258-016-3</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO REMBERTO, MIXCO LOPEZ</t>
+        </is>
+      </c>
+      <c r="E102" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F102" s="0" t="inlineStr">
+        <is>
+          <t>6276-3473</t>
+        </is>
+      </c>
+      <c r="G102" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>155.20</t>
+        </is>
+      </c>
+      <c r="I102" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J102" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>SV-PC47670</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>01040243-2</t>
+        </is>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>0714-230573-102-6</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>CRUZ MARINA, PALACIOS DE GUARDADO</t>
+        </is>
+      </c>
+      <c r="E103" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F103" s="0" t="inlineStr">
+        <is>
+          <t>6203-9568</t>
+        </is>
+      </c>
+      <c r="G103" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H103" s="0" t="inlineStr">
+        <is>
+          <t>194.60</t>
+        </is>
+      </c>
+      <c r="I103" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J103" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>SV-FF47704</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>01054713-5</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>0511-070282-101-9</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO STEVE, FLORES SARMIENTO</t>
+        </is>
+      </c>
+      <c r="E104" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F104" s="0" t="inlineStr">
+        <is>
+          <t>7921-1113</t>
+        </is>
+      </c>
+      <c r="G104" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H104" s="0" t="inlineStr">
+        <is>
+          <t>70.80</t>
+        </is>
+      </c>
+      <c r="I104" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J104" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>SV-GM47660</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>01129927-2</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>0805-120572-101-3</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>MANUEL ENRIQUE, GRANDE CASTELLANOS</t>
+        </is>
+      </c>
+      <c r="E105" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F105" s="0" t="inlineStr">
+        <is>
+          <t>6284-5726</t>
+        </is>
+      </c>
+      <c r="G105" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H105" s="0" t="inlineStr">
+        <is>
+          <t>186.20</t>
+        </is>
+      </c>
+      <c r="I105" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J105" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>SV-DY22084</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>01130847-9</t>
+        </is>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>1123-080476-103-6</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>YANIRA DEL CARMEN, DE LA O CHAVEZ</t>
+        </is>
+      </c>
+      <c r="E106" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F106" s="0" t="inlineStr">
+        <is>
+          <t>7594-0982</t>
+        </is>
+      </c>
+      <c r="G106" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H106" s="0" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="I106" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J106" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>SV-AF47690</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>01296739-9</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>0210-040661-002-7</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>FRANCISCO ANTONIO, ALARCON SANDOVAL</t>
+        </is>
+      </c>
+      <c r="E107" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F107" s="0" t="inlineStr">
+        <is>
+          <t>7870-0337</t>
+        </is>
+      </c>
+      <c r="G107" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H107" s="0" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="I107" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J107" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>SV-CM1664</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>01596553-2</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>0210-091163-005-8</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>MARTA ALICIA, CABRERA MARTINEZ</t>
+        </is>
+      </c>
+      <c r="E108" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F108" s="0" t="inlineStr">
+        <is>
+          <t>6280-5523</t>
+        </is>
+      </c>
+      <c r="G108" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H108" s="0" t="inlineStr">
+        <is>
+          <t>202.80</t>
+        </is>
+      </c>
+      <c r="I108" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J108" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>SV-CF47692</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>01603329-9</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>0614-161045-002-6</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>FABIO ANTONIO, CASTILLO GRIJALVA</t>
+        </is>
+      </c>
+      <c r="E109" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F109" s="0" t="inlineStr">
+        <is>
+          <t>6222-6303</t>
+        </is>
+      </c>
+      <c r="G109" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H109" s="0" t="inlineStr">
+        <is>
+          <t>222.20</t>
+        </is>
+      </c>
+      <c r="I109" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J109" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>SV-LE47652</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>01799830-3</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>0614-210370-105-9</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>ERIC LOMBARDO, LEMUS ESCALANTE</t>
+        </is>
+      </c>
+      <c r="E110" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F110" s="0" t="inlineStr">
+        <is>
+          <t>6284-9154</t>
+        </is>
+      </c>
+      <c r="G110" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H110" s="0" t="inlineStr">
+        <is>
+          <t>132.80</t>
+        </is>
+      </c>
+      <c r="I110" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J110" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>SV-AC3746</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>01927151-1</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>0411-120653-001-5</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS ALBERTO, ARDON GAVARRETE</t>
+        </is>
+      </c>
+      <c r="E111" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F111" s="0" t="inlineStr">
+        <is>
+          <t>6278-9958</t>
+        </is>
+      </c>
+      <c r="G111" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H111" s="0" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="I111" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J111" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>SV-LE47654</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>01945136-5</t>
+        </is>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>0614-181071-115-3</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>EVELYN ELIZABETH, LOPEZ DE CARDOZA</t>
+        </is>
+      </c>
+      <c r="E112" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F112" s="0" t="inlineStr">
+        <is>
+          <t>7833-2389</t>
+        </is>
+      </c>
+      <c r="G112" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H112" s="0" t="inlineStr">
+        <is>
+          <t>183.40</t>
+        </is>
+      </c>
+      <c r="I112" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J112" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>SV-MO47687</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>02159051-5</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>0614-181084-112-0</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>OSMIN EDGARDO, MOREJON LOPEZ</t>
+        </is>
+      </c>
+      <c r="E113" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F113" s="0" t="inlineStr">
+        <is>
+          <t>6292-3539</t>
+        </is>
+      </c>
+      <c r="G113" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H113" s="0" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="I113" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J113" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>SV-CC47631</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>02216998-5</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>0112-260574-101-2</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>CARLOS ADALBERTO, CASTRO AGUILAR</t>
+        </is>
+      </c>
+      <c r="E114" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F114" s="0" t="inlineStr">
+        <is>
+          <t>6541-4440</t>
+        </is>
+      </c>
+      <c r="G114" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H114" s="0" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="I114" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J114" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>SV-AE27200</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>02222044-8</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>0711-081066-101-7</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>ELMER ENRIQUE, AREVALO</t>
+        </is>
+      </c>
+      <c r="E115" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F115" s="0" t="inlineStr">
+        <is>
+          <t>7853-3506</t>
+        </is>
+      </c>
+      <c r="G115" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H115" s="0" t="inlineStr">
+        <is>
+          <t>360.40</t>
+        </is>
+      </c>
+      <c r="I115" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J115" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>SV-MM47655</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>02326269-7</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>0614-170668-114-5</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>MARITZA DEL CARMEN, MELARA CASTILLO</t>
+        </is>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F116" s="0" t="inlineStr">
+        <is>
+          <t>7833-2541</t>
+        </is>
+      </c>
+      <c r="G116" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H116" s="0" t="inlineStr">
+        <is>
+          <t>214.60</t>
+        </is>
+      </c>
+      <c r="I116" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J116" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>SV-OJ47681</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>02374714-2</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>1416-080260-001-4</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>JORGE ALBERTO, ORTEZ HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F117" s="0" t="inlineStr">
+        <is>
+          <t>6669-4982</t>
+        </is>
+      </c>
+      <c r="G117" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H117" s="0" t="inlineStr">
+        <is>
+          <t>110.80</t>
+        </is>
+      </c>
+      <c r="I117" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J117" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>SV-CO47689</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>02473300-7</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>1010-290665-001-1</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>OSCAR MAURICIO, CARRILLO TURCIOS</t>
+        </is>
+      </c>
+      <c r="E118" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F118" s="0" t="inlineStr">
+        <is>
+          <t>6288-8115</t>
+        </is>
+      </c>
+      <c r="G118" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H118" s="0" t="inlineStr">
+        <is>
+          <t>227.80</t>
+        </is>
+      </c>
+      <c r="I118" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J118" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>SV-AR47674</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>02757200-2</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>0108-071281-101-0</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>REYNALDA EMILIA, AYALA SARMIENTO</t>
+        </is>
+      </c>
+      <c r="E119" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F119" s="0" t="inlineStr">
+        <is>
+          <t>6529-1430</t>
+        </is>
+      </c>
+      <c r="G119" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H119" s="0" t="inlineStr">
+        <is>
+          <t>339.60</t>
+        </is>
+      </c>
+      <c r="I119" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J119" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>SV-ON16424</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>02932422-7</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>1307-251264-101-6</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>NATIVIDAD CRISTINO, ORELLANA CHICA</t>
+        </is>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
+        <is>
+          <t>FEMENINO</t>
+        </is>
+      </c>
+      <c r="F120" s="0" t="inlineStr">
+        <is>
+          <t>6206-1046</t>
+        </is>
+      </c>
+      <c r="G120" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H120" s="0" t="inlineStr">
+        <is>
+          <t>121.80</t>
+        </is>
+      </c>
+      <c r="I120" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J120" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>SV-MH47685</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>02949128-6</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>0511-080585-101-3</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>HIRBINJ NOE, MARTINEZ ARGUETA</t>
+        </is>
+      </c>
+      <c r="E121" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F121" s="0" t="inlineStr">
+        <is>
+          <t>6235-0594</t>
+        </is>
+      </c>
+      <c r="G121" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
+        <is>
+          <t>39.20</t>
+        </is>
+      </c>
+      <c r="I121" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J121" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>SV-AP47661</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>03407969-1</t>
+        </is>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>0609-061285-102-7</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>PEDRO ALFONSO, AMAYA ORTEGA</t>
+        </is>
+      </c>
+      <c r="E122" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F122" s="0" t="inlineStr">
+        <is>
+          <t>7391-0697</t>
+        </is>
+      </c>
+      <c r="G122" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H122" s="0" t="inlineStr">
+        <is>
+          <t>308.00</t>
+        </is>
+      </c>
+      <c r="I122" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J122" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>SV-LJ47675</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>03454166-4</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>0821-280180-105-2</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>JORGE ALBERTO, LOPEZ ROMERO</t>
+        </is>
+      </c>
+      <c r="E123" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F123" s="0" t="inlineStr">
+        <is>
+          <t>7114-6362</t>
+        </is>
+      </c>
+      <c r="G123" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H123" s="0" t="inlineStr">
+        <is>
+          <t>118.40</t>
+        </is>
+      </c>
+      <c r="I123" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J123" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>SV-SH23204</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>03769657-3</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>0614-270787-103-3</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>HECTOR ALEJANDRO, SORIANO BONILLA</t>
+        </is>
+      </c>
+      <c r="E124" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F124" s="0" t="inlineStr">
+        <is>
+          <t>7795-3576</t>
+        </is>
+      </c>
+      <c r="G124" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H124" s="0" t="inlineStr">
+        <is>
+          <t>205.20</t>
+        </is>
+      </c>
+      <c r="I124" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J124" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>SV-HG47715</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>03816206-4</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>0614-241087-114-0</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>GUSTAVO RAFAEL, HERNANDEZ MEMBREÑO</t>
+        </is>
+      </c>
+      <c r="E125" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F125" s="0" t="inlineStr">
+        <is>
+          <t>7104-8822</t>
+        </is>
+      </c>
+      <c r="G125" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H125" s="0" t="inlineStr">
+        <is>
+          <t>363.00</t>
+        </is>
+      </c>
+      <c r="I125" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J125" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>SV-LJ47662</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>03975969-4</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>0612-240888-101-3</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>JORGE MATEO, LOPEZ URQUILLA</t>
+        </is>
+      </c>
+      <c r="E126" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F126" s="0" t="inlineStr">
+        <is>
+          <t>7832-6391</t>
+        </is>
+      </c>
+      <c r="G126" s="0" t="inlineStr">
+        <is>
+          <t>ACTIVO</t>
+        </is>
+      </c>
+      <c r="H126" s="0" t="inlineStr">
+        <is>
+          <t>205.80</t>
+        </is>
+      </c>
+      <c r="I126" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE TURISTA</t>
+        </is>
+      </c>
+      <c r="J126" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>SV-HM47684</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>04432219-3</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>0614-120391-130-5</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>MILTON SAMUEL, HERNANDEZ CANTARELY</t>
+        </is>
+      </c>
+      <c r="E127" s="0" t="inlineStr">
+        <is>
+          <t>MASCULINO</t>
+        </is>
+      </c>
+      <c r="F127" s="0" t="inlineStr">
+        <is>
+          <t>7581-2813</t>
+        </is>
+      </c>
+      <c r="G127" s="0" t="inlineStr">
+        <is>
+          <t>INACTIVO</t>
+        </is>
+      </c>
+      <c r="H127" s="0" t="inlineStr">
+        <is>
+          <t>192.40</t>
+        </is>
+      </c>
+      <c r="I127" s="0" t="inlineStr">
+        <is>
+          <t>CLIENTE GUBERNAMENTAL</t>
+        </is>
+      </c>
+      <c r="J127" s="0" t="inlineStr">
+        <is>
+          <t>sv</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
